--- a/performance_report_template.xlsx
+++ b/performance_report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paras Garg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEA58CD-1715-4E7D-BDF5-2767F03E8CE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301F451E-7AA9-4D6B-A30A-4607F0174B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3624" yWindow="1692" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5016" yWindow="3084" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IH PANEL-06" sheetId="1" r:id="rId1"/>
@@ -1970,27 +1970,27 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3579,7 +3579,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="457200" cy="209550"/>
@@ -3596,7 +3596,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1152525" y="209550"/>
+          <a:off x="1152525" y="19050"/>
           <a:ext cx="457200" cy="209550"/>
           <a:chOff x="5117400" y="3675225"/>
           <a:chExt cx="457200" cy="209550"/>
@@ -3940,7 +3940,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1238250" cy="295275"/>
@@ -3974,7 +3974,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1400175" cy="228600"/>
@@ -4008,7 +4008,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1123950" cy="304800"/>
@@ -4047,7 +4047,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="457200" cy="209550"/>
@@ -4064,7 +4064,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1152525" y="209550"/>
+          <a:off x="1152525" y="19050"/>
           <a:ext cx="457200" cy="209550"/>
           <a:chOff x="5117400" y="3675225"/>
           <a:chExt cx="457200" cy="209550"/>
@@ -4408,7 +4408,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1238250" cy="295275"/>
@@ -4442,7 +4442,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1400175" cy="228600"/>
@@ -4476,7 +4476,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1123950" cy="304800"/>
@@ -4829,7 +4829,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="112"/>
@@ -4844,7 +4844,7 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="115" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="112"/>
@@ -4859,7 +4859,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="117" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="112"/>
@@ -4909,13 +4909,13 @@
       <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="113" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="1"/>
@@ -4929,7 +4929,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="114"/>
-      <c r="D7" s="116"/>
+      <c r="D7" s="119"/>
       <c r="E7" s="114"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -5247,22 +5247,22 @@
       <c r="K21" s="72"/>
     </row>
     <row r="22" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="116" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="117" t="s">
+      <c r="D22" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="117" t="s">
+      <c r="E22" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="113" t="s">
+      <c r="F22" s="116" t="s">
         <v>83</v>
       </c>
       <c r="G22" s="1"/>
@@ -5376,25 +5376,25 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="116" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="113" t="s">
+      <c r="D29" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="117" t="s">
+      <c r="E29" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="117" t="s">
+      <c r="F29" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="117" t="s">
+      <c r="G29" s="113" t="s">
         <v>45</v>
       </c>
       <c r="H29" s="1"/>
@@ -5471,22 +5471,22 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="116" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="D34" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="E34" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="113" t="s">
+      <c r="F34" s="116" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="1"/>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="118" t="s">
+      <c r="D43" s="111" t="s">
         <v>112</v>
       </c>
       <c r="E43" s="112"/>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="118" t="s">
+      <c r="D44" s="111" t="s">
         <v>121</v>
       </c>
       <c r="E44" s="112"/>
@@ -6634,14 +6634,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F22:F23"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="D22:D23"/>
@@ -6652,12 +6644,20 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait"/>
@@ -6669,7 +6669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -8093,7 +8095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -10939,10 +10941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A2:L1000"/>
+  <dimension ref="A1:L998"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -10962,259 +10964,261 @@
     <col min="13" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21">
-      <c r="C2" s="89" t="s">
+    <row r="1" spans="1:12" ht="21">
+      <c r="C1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.399999999999999">
+      <c r="B2" s="91"/>
+      <c r="C2" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999">
-      <c r="B3" s="91"/>
-      <c r="C3" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.399999999999999">
-      <c r="A4" s="91" t="s">
+      <c r="A3" s="91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6">
+    <row r="4" spans="1:12" ht="15.6">
+      <c r="A4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.4">
       <c r="A5" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="14.4">
       <c r="A6" s="73" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
     </row>
     <row r="7" spans="1:12" ht="14.4">
       <c r="A7" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.4">
-      <c r="A8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="73"/>
-    </row>
-    <row r="11" spans="1:12" ht="27">
-      <c r="A11" s="96" t="s">
+      <c r="B7" s="73"/>
+    </row>
+    <row r="9" spans="1:12" ht="27">
+      <c r="A9" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C9" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="98" t="s">
+      <c r="F9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="98" t="s">
+      <c r="G9" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="98" t="s">
+      <c r="H9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="98" t="s">
+      <c r="I9" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="J9" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K9" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="102" t="s">
+      <c r="L9" s="102" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4">
-      <c r="A12" s="103" t="s">
+    <row r="10" spans="1:12" ht="14.4">
+      <c r="A10" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="104"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.4">
-      <c r="A13" s="105" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="104"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.4">
+      <c r="A11" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="106"/>
-    </row>
-    <row r="14" spans="1:12" ht="33">
-      <c r="A14" s="107" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="106"/>
+    </row>
+    <row r="12" spans="1:12" ht="33">
+      <c r="A12" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B12" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108" t="s">
+      <c r="F12" s="108"/>
+      <c r="G12" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108" t="s">
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="108"/>
-      <c r="L14" s="69"/>
-    </row>
-    <row r="15" spans="1:12" ht="29.4">
-      <c r="A15" s="127" t="s">
+      <c r="K12" s="108"/>
+      <c r="L12" s="69"/>
+    </row>
+    <row r="13" spans="1:12" ht="29.4">
+      <c r="A13" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:12" ht="14.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="E16" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="69"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="14.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="74"/>
+      <c r="E17" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="14.4">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="69"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.4">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.4">
-      <c r="A20" s="69" t="s">
+      <c r="A18" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="69">
+      <c r="B18" s="69">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="69" t="s">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A19" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B19" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="73"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="73"/>
-    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="73"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="73"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
@@ -12188,13 +12192,11 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -12204,10 +12206,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A2:L1000"/>
+  <dimension ref="A1:L998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -12227,259 +12229,261 @@
     <col min="13" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="21">
-      <c r="C2" s="89" t="s">
+    <row r="1" spans="1:12" ht="21">
+      <c r="C1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.399999999999999">
+      <c r="B2" s="91"/>
+      <c r="C2" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999">
-      <c r="B3" s="91"/>
-      <c r="C3" s="125" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.399999999999999">
-      <c r="A4" s="91" t="s">
+      <c r="A3" s="91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6">
+    <row r="4" spans="1:12" ht="15.6">
+      <c r="A4" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+    </row>
+    <row r="5" spans="1:12" ht="14.4">
       <c r="A5" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="14.4">
       <c r="A6" s="73" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
     </row>
     <row r="7" spans="1:12" ht="14.4">
       <c r="A7" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.4">
-      <c r="A8" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="73"/>
-    </row>
-    <row r="11" spans="1:12" ht="27">
-      <c r="A11" s="96" t="s">
+      <c r="B7" s="73"/>
+    </row>
+    <row r="9" spans="1:12" ht="27">
+      <c r="A9" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B9" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C9" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D9" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E9" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="98" t="s">
+      <c r="F9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="98" t="s">
+      <c r="G9" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="98" t="s">
+      <c r="H9" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="98" t="s">
+      <c r="I9" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="98" t="s">
+      <c r="J9" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K9" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="102" t="s">
+      <c r="L9" s="102" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4">
-      <c r="A12" s="103" t="s">
+    <row r="10" spans="1:12" ht="14.4">
+      <c r="A10" s="103" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="104"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.4">
-      <c r="A13" s="105" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="104"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.4">
+      <c r="A11" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="106"/>
-    </row>
-    <row r="14" spans="1:12" ht="33">
-      <c r="A14" s="107" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="106"/>
+    </row>
+    <row r="12" spans="1:12" ht="33">
+      <c r="A12" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B12" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108" t="s">
+      <c r="F12" s="108"/>
+      <c r="G12" s="108" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108" t="s">
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="108"/>
-      <c r="L14" s="69"/>
-    </row>
-    <row r="15" spans="1:12" ht="29.4">
-      <c r="A15" s="127" t="s">
+      <c r="K12" s="108"/>
+      <c r="L12" s="69"/>
+    </row>
+    <row r="13" spans="1:12" ht="29.4">
+      <c r="A13" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:12" ht="14.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="E16" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="69"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="14.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="74"/>
+      <c r="E17" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="69"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="14.4">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="69"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.4">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.4">
-      <c r="A20" s="69" t="s">
+      <c r="A18" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="69">
+      <c r="B18" s="69">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="69" t="s">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A19" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B19" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="73"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="73"/>
-    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="73"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A23" s="73"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:12" ht="15.75" customHeight="1"/>
@@ -13453,13 +13457,11 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
